--- a/data/math/math-96.xlsx
+++ b/data/math/math-96.xlsx
@@ -464,10 +464,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (isNaN()) {
+</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>1.00000</t>
@@ -488,10 +493,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return 37 * (17 * MathUtils.hash(imaginary) + 
+</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>1.00000</t>
@@ -512,10 +522,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return createComplex(real * rhs.real - imaginary * rhs.imaginary,
+</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>0.05263</t>
@@ -536,10 +551,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (Double.isInfinite(real) || Double.isInfinite(imaginary) ||
+</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>0.04348</t>
@@ -560,17 +580,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    ret = (Double.doubleToRawLongBits(real) == Double.doubleToRawLongBits(rhs.getReal())) &amp;&amp; (Double.doubleToRawLongBits(imaginary) == Double.doubleToRawLongBits(rhs.getImaginary())); 
+</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>0.03448</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -584,10 +609,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (isNaN() || rhs.isNaN()) {
+</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>0.03448</t>
@@ -608,10 +638,15 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                if (rhs.isNaN()) {
+</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>0.03125</t>
@@ -632,10 +667,15 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            }
+</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>0.03125</t>
@@ -656,10 +696,15 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                Complex rhs = (Complex)other;
+</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>0.03030</t>
@@ -680,10 +725,15 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        } else if (other == null) {
+</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>0.02941</t>
@@ -704,10 +754,15 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (this == other) { 
+</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>0.02703</t>
@@ -728,10 +783,15 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return ret;
+</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>0.02703</t>
@@ -752,10 +812,15 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return new Complex(real, imaginary);
+</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>0.01639</t>
@@ -776,10 +841,15 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return Double.isNaN(real) || Double.isNaN(imaginary);        
+</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>0.00909</t>
@@ -800,10 +870,15 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return real;
+</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>0.00870</t>
@@ -824,10 +899,15 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        super();
+</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>0.00676</t>
@@ -848,10 +928,15 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        this.real = real;
+</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>0.00676</t>
@@ -872,10 +957,15 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        this.imaginary = imaginary;
+</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>0.00676</t>
@@ -896,10 +986,15 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>0.00676</t>
@@ -920,10 +1015,15 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    public static final Complex I = new Complex(0.0, 1.0);
+</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>0.00676</t>
@@ -944,10 +1044,15 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    public static final Complex NaN = new Complex(Double.NaN, Double.NaN);
+</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>0.00676</t>
@@ -968,10 +1073,15 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    public static final Complex INF = new Complex(Double.POSITIVE_INFINITY, Double.POSITIVE_INFINITY);
+</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>0.00676</t>
@@ -992,10 +1102,15 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    public static final Complex ONE = new Complex(1.0, 0.0);
+</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>0.00676</t>
@@ -1016,10 +1131,15 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    public static final Complex ZERO = new Complex(0.0, 0.0);
+</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>0.00676</t>
@@ -1040,10 +1160,15 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (isNaN()) {
+</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1064,10 +1189,15 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return Double.NaN;
+</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1088,10 +1218,15 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (isInfinite()) {
+</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1112,10 +1247,15 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return Double.POSITIVE_INFINITY;
+</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1136,10 +1276,15 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (Math.abs(real) &lt; Math.abs(imaginary)) {
+</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1160,10 +1305,15 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if (imaginary == 0.0) {
+</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1184,10 +1334,15 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                return Math.abs(real);
+</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1208,10 +1363,15 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            double q = real / imaginary;
+</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1232,10 +1392,15 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return (Math.abs(imaginary) * Math.sqrt(1 + q*q));
+</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1256,10 +1421,15 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if (real == 0.0) {
+</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1280,10 +1450,15 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                return Math.abs(imaginary);
+</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1304,10 +1479,15 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            double q = imaginary / real;
+</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1328,10 +1508,15 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return (Math.abs(real) * Math.sqrt(1 + q*q));
+</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1352,10 +1537,15 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return createComplex(real + rhs.getReal(),
+</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1376,10 +1566,15 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (isNaN()) {
+</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1400,10 +1595,15 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return NaN;
+</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1424,10 +1624,15 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return createComplex(real, -imaginary);
+</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1448,10 +1653,15 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (isNaN() || rhs.isNaN()) {
+</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1472,10 +1682,15 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return NaN;
+</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1496,10 +1711,15 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        double c = rhs.getReal();
+</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1520,10 +1740,15 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        double d = rhs.getImaginary();
+</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1544,10 +1769,15 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (c == 0.0 &amp;&amp; d == 0.0) {
+</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1568,10 +1798,15 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return NaN;
+</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1592,10 +1827,15 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (rhs.isInfinite() &amp;&amp; !isInfinite()) {
+</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1616,10 +1856,15 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return ZERO;
+</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1640,10 +1885,15 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (Math.abs(c) &lt; Math.abs(d)) {
+</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1664,10 +1914,15 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if (d == 0.0) {
+</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1688,10 +1943,15 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                return createComplex(real/c, imaginary/c);
+</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1712,10 +1972,15 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            double q = c / d;
+</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1736,10 +2001,15 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            double denominator = c * q + d;
+</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1760,10 +2030,15 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return createComplex((real * q + imaginary) / denominator,
+</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1784,10 +2059,15 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if (c == 0.0) {
+</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1808,10 +2088,15 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                return createComplex(imaginary/d, -real/c);
+</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1832,10 +2117,15 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            double q = d / c;
+</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1856,10 +2146,15 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            double denominator = d * q + c;
+</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1880,10 +2175,15 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return createComplex((imaginary * q + real) / denominator,
+</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1904,10 +2204,15 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ret = true;
+</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1928,10 +2233,15 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ret = false;
+</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1952,10 +2262,15 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    ret = this.isNaN();
+</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1976,10 +2291,15 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            } catch (ClassCastException ex) {
+</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2000,10 +2320,15 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                ret = false;
+</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2024,10 +2349,15 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return 7;
+</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2048,10 +2378,15 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return imaginary;
+</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2072,10 +2407,15 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return !isNaN() &amp;&amp; 
+</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2096,10 +2436,15 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return NaN;
+</t>
+        </is>
+      </c>
       <c r="E70" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2120,10 +2465,15 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return INF;
+</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2144,10 +2494,15 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (isNaN()) {
+</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2168,10 +2523,15 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return NaN;
+</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2192,10 +2552,15 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return createComplex(-real, -imaginary);
+</t>
+        </is>
+      </c>
       <c r="E74" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2216,10 +2581,15 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (isNaN() || rhs.isNaN()) {
+</t>
+        </is>
+      </c>
       <c r="E75" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2240,10 +2610,15 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return NaN;
+</t>
+        </is>
+      </c>
       <c r="E76" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2264,10 +2639,15 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return createComplex(real - rhs.getReal(),
+</t>
+        </is>
+      </c>
       <c r="E77" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2288,10 +2668,15 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (isNaN()) {
+</t>
+        </is>
+      </c>
       <c r="E78" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2312,10 +2697,15 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
+          <t>426</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return Complex.NaN;
+</t>
+        </is>
+      </c>
       <c r="E79" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2336,10 +2726,15 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return this.add(this.sqrt1z().multiply(Complex.I)).log()
+</t>
+        </is>
+      </c>
       <c r="E80" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2360,10 +2755,15 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (isNaN()) {
+</t>
+        </is>
+      </c>
       <c r="E81" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2384,10 +2784,15 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
+          <t>449</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return Complex.NaN;
+</t>
+        </is>
+      </c>
       <c r="E82" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2408,10 +2813,15 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return sqrt1z().add(this.multiply(Complex.I)).log()
+</t>
+        </is>
+      </c>
       <c r="E83" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2432,10 +2842,15 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
+          <t>471</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (isNaN()) {
+</t>
+        </is>
+      </c>
       <c r="E84" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2456,10 +2871,15 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
+          <t>472</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return Complex.NaN;
+</t>
+        </is>
+      </c>
       <c r="E85" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2480,10 +2900,15 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return this.add(Complex.I).divide(Complex.I.subtract(this)).log()
+</t>
+        </is>
+      </c>
       <c r="E86" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2504,10 +2929,15 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
+          <t>506</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (isNaN()) {
+</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2528,10 +2958,15 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return Complex.NaN;
+</t>
+        </is>
+      </c>
       <c r="E88" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2552,10 +2987,15 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr"/>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return createComplex(Math.cos(real) * MathUtils.cosh(imaginary),
+</t>
+        </is>
+      </c>
       <c r="E89" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2576,10 +3016,15 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (isNaN()) {
+</t>
+        </is>
+      </c>
       <c r="E90" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2600,10 +3045,15 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr"/>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return Complex.NaN;
+</t>
+        </is>
+      </c>
       <c r="E91" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2624,10 +3074,15 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr"/>
+          <t>544</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return createComplex(MathUtils.cosh(real) * Math.cos(imaginary),
+</t>
+        </is>
+      </c>
       <c r="E92" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2648,10 +3103,15 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (isNaN()) {
+</t>
+        </is>
+      </c>
       <c r="E93" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2672,10 +3132,15 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr"/>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return Complex.NaN;
+</t>
+        </is>
+      </c>
       <c r="E94" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2696,10 +3161,15 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        double expReal = Math.exp(real);
+</t>
+        </is>
+      </c>
       <c r="E95" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2720,10 +3190,15 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr"/>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return createComplex(expReal *  Math.cos(imaginary), expReal * Math.sin(imaginary));
+</t>
+        </is>
+      </c>
       <c r="E96" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2744,10 +3219,15 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (isNaN()) {
+</t>
+        </is>
+      </c>
       <c r="E97" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2768,10 +3248,15 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr"/>
+          <t>614</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return Complex.NaN;
+</t>
+        </is>
+      </c>
       <c r="E98" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2792,10 +3277,15 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr"/>
+          <t>617</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return createComplex(Math.log(abs()),
+</t>
+        </is>
+      </c>
       <c r="E99" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2816,10 +3306,15 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr"/>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (x == null) {
+</t>
+        </is>
+      </c>
       <c r="E100" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2840,10 +3335,15 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr"/>
+          <t>640</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw new NullPointerException();
+</t>
+        </is>
+      </c>
       <c r="E101" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2864,10 +3364,15 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return this.log().multiply(x).exp();
+</t>
+        </is>
+      </c>
       <c r="E102" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2888,10 +3393,15 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr"/>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (isNaN()) {
+</t>
+        </is>
+      </c>
       <c r="E103" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2912,10 +3422,15 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>103</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr"/>
+          <t>673</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return Complex.NaN;
+</t>
+        </is>
+      </c>
       <c r="E104" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2936,10 +3451,15 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr"/>
+          <t>676</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return createComplex(Math.sin(real) * MathUtils.cosh(imaginary),
+</t>
+        </is>
+      </c>
       <c r="E105" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2960,10 +3480,15 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr"/>
+          <t>706</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (isNaN()) {
+</t>
+        </is>
+      </c>
       <c r="E106" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2984,10 +3509,15 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
+          <t>707</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return Complex.NaN;
+</t>
+        </is>
+      </c>
       <c r="E107" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3008,10 +3538,15 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>107</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
+          <t>710</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return createComplex(MathUtils.sinh(real) * Math.cos(imaginary),
+</t>
+        </is>
+      </c>
       <c r="E108" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3032,10 +3567,15 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>108</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr"/>
+          <t>748</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (isNaN()) {
+</t>
+        </is>
+      </c>
       <c r="E109" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3056,10 +3596,15 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr"/>
+          <t>749</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return Complex.NaN;
+</t>
+        </is>
+      </c>
       <c r="E110" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3080,10 +3625,15 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr"/>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (real == 0.0 &amp;&amp; imaginary == 0.0) {
+</t>
+        </is>
+      </c>
       <c r="E111" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3104,10 +3654,15 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr"/>
+          <t>753</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return createComplex(0.0, 0.0);
+</t>
+        </is>
+      </c>
       <c r="E112" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3128,10 +3683,15 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>112</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
+          <t>756</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        double t = Math.sqrt((Math.abs(real) + abs()) / 2.0);
+</t>
+        </is>
+      </c>
       <c r="E113" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3152,10 +3712,15 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>113</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr"/>
+          <t>757</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (real &gt;= 0.0) {
+</t>
+        </is>
+      </c>
       <c r="E114" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3176,10 +3741,15 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>114</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr"/>
+          <t>758</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return createComplex(t, imaginary / (2.0 * t));
+</t>
+        </is>
+      </c>
       <c r="E115" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3200,10 +3770,15 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>115</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr"/>
+          <t>760</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return createComplex(Math.abs(imaginary) / (2.0 * t),
+</t>
+        </is>
+      </c>
       <c r="E116" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3224,10 +3799,15 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr"/>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return createComplex(1.0, 0.0).subtract(this.multiply(this)).sqrt();
+</t>
+        </is>
+      </c>
       <c r="E117" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3248,10 +3828,15 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>117</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr"/>
+          <t>814</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (isNaN()) {
+</t>
+        </is>
+      </c>
       <c r="E118" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3272,10 +3857,15 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr"/>
+          <t>815</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return Complex.NaN;
+</t>
+        </is>
+      </c>
       <c r="E119" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3296,10 +3886,15 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>119</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr"/>
+          <t>818</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        double real2 = 2.0 * real;
+</t>
+        </is>
+      </c>
       <c r="E120" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3320,10 +3915,15 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr"/>
+          <t>819</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        double imaginary2 = 2.0 * imaginary;
+</t>
+        </is>
+      </c>
       <c r="E121" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3344,10 +3944,15 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr"/>
+          <t>820</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        double d = Math.cos(real2) + MathUtils.cosh(imaginary2);
+</t>
+        </is>
+      </c>
       <c r="E122" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3368,10 +3973,15 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>122</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr"/>
+          <t>822</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return createComplex(Math.sin(real2) / d, MathUtils.sinh(imaginary2) / d);
+</t>
+        </is>
+      </c>
       <c r="E123" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3392,10 +4002,15 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr"/>
+          <t>852</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (isNaN()) {
+</t>
+        </is>
+      </c>
       <c r="E124" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3416,10 +4031,15 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>124</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr"/>
+          <t>853</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return Complex.NaN;
+</t>
+        </is>
+      </c>
       <c r="E125" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3440,10 +4060,15 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>125</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr"/>
+          <t>856</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        double real2 = 2.0 * real;
+</t>
+        </is>
+      </c>
       <c r="E126" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3464,10 +4089,15 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>126</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr"/>
+          <t>857</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        double imaginary2 = 2.0 * imaginary;
+</t>
+        </is>
+      </c>
       <c r="E127" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3488,10 +4118,15 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr"/>
+          <t>858</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        double d = MathUtils.cosh(real2) + Math.cos(imaginary2);
+</t>
+        </is>
+      </c>
       <c r="E128" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3512,10 +4147,15 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>128</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr"/>
+          <t>860</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return createComplex(MathUtils.sinh(real2) / d, Math.sin(imaginary2) / d);
+</t>
+        </is>
+      </c>
       <c r="E129" t="inlineStr">
         <is>
           <t>0.00000</t>
